--- a/角色数据.xlsx
+++ b/角色数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GodotProject\SoulFerry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\godot\SoulFerry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBB62F2-67C2-453C-86B9-0EAD47E7BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32FDD4-8DBD-41DF-A688-C90F377013BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,78 @@
   </si>
   <si>
     <t>ATB值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff释放者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff剩余ATB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义记录参数（记录Buff特别需要的数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG（标签，例如中毒等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起攻击时（OnHit）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击时（BeHurt）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff对行动的影响（触发点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,10 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,66 +479,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="15.58203125" customWidth="1"/>
+    <col min="1" max="28" width="15.58203125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F2" t="s">
+    <row r="2" spans="1:27" ht="42" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="28" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
